--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc205_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc205_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -138,11 +158,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,26 +189,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true">
-      <c r="A1" t="s" s="3">
+    <row r="1" s="7" customFormat="true">
+      <c r="A1" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="7">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +236,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="3">
+      <c r="C3" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="3">
+      <c r="D3" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -258,28 +282,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -918,10 +942,10 @@
       <c r="I27">
         <f>((C27-C26)^2+(D27- D26)^2)^.5</f>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="J27" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="K27" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L27" t="n">
@@ -965,28 +989,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="3">
+      <c r="A29" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B29" t="s" s="3">
+      <c r="B29" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C29" t="s" s="3">
+      <c r="C29" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D29" t="s" s="3">
+      <c r="D29" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E29" t="s" s="3">
+      <c r="E29" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F29" t="s" s="3">
+      <c r="F29" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G29" t="s" s="3">
+      <c r="G29" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H29" t="s" s="3">
+      <c r="H29" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1011,28 +1035,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="3">
+      <c r="B31" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C31" t="s" s="3">
+      <c r="C31" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D31" t="s" s="3">
+      <c r="D31" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E31" t="s" s="3">
+      <c r="E31" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F31" t="s" s="3">
+      <c r="F31" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G31" t="s" s="3">
+      <c r="G31" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H31" t="s" s="3">
+      <c r="H31" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I31" t="s" s="3">
+      <c r="I31" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1613,10 +1637,10 @@
       <c r="I51">
         <f>((C51-C50)^2+(D51- D50)^2)^.5</f>
       </c>
-      <c r="J51" s="3" t="s">
+      <c r="J51" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K51" s="3" t="s">
+      <c r="K51" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L51" t="n">
@@ -1660,28 +1684,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="3">
+      <c r="A53" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B53" t="s" s="3">
+      <c r="B53" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C53" t="s" s="3">
+      <c r="C53" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D53" t="s" s="3">
+      <c r="D53" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E53" t="s" s="3">
+      <c r="E53" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F53" t="s" s="3">
+      <c r="F53" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G53" t="s" s="3">
+      <c r="G53" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H53" t="s" s="3">
+      <c r="H53" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1706,28 +1730,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="B55" t="s" s="3">
+      <c r="B55" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C55" t="s" s="3">
+      <c r="C55" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D55" t="s" s="3">
+      <c r="D55" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E55" t="s" s="3">
+      <c r="E55" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F55" t="s" s="3">
+      <c r="F55" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G55" t="s" s="3">
+      <c r="G55" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H55" t="s" s="3">
+      <c r="H55" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I55" t="s" s="3">
+      <c r="I55" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2105,10 +2129,10 @@
       <c r="I68">
         <f>((C68-C67)^2+(D68- D67)^2)^.5</f>
       </c>
-      <c r="J68" s="3" t="s">
+      <c r="J68" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K68" s="3" t="s">
+      <c r="K68" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L68" t="n">
@@ -2152,28 +2176,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="s" s="3">
+      <c r="A70" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B70" t="s" s="3">
+      <c r="B70" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C70" t="s" s="3">
+      <c r="C70" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D70" t="s" s="3">
+      <c r="D70" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E70" t="s" s="3">
+      <c r="E70" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F70" t="s" s="3">
+      <c r="F70" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G70" t="s" s="3">
+      <c r="G70" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H70" t="s" s="3">
+      <c r="H70" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2198,28 +2222,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="B72" t="s" s="3">
+      <c r="B72" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C72" t="s" s="3">
+      <c r="C72" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D72" t="s" s="3">
+      <c r="D72" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E72" t="s" s="3">
+      <c r="E72" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F72" t="s" s="3">
+      <c r="F72" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G72" t="s" s="3">
+      <c r="G72" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H72" t="s" s="3">
+      <c r="H72" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I72" t="s" s="3">
+      <c r="I72" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2539,10 +2563,10 @@
       <c r="I83">
         <f>((C83-C82)^2+(D83- D82)^2)^.5</f>
       </c>
-      <c r="J83" s="3" t="s">
+      <c r="J83" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="K83" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L83" t="n">
@@ -2586,28 +2610,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="s" s="3">
+      <c r="A85" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B85" t="s" s="3">
+      <c r="B85" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C85" t="s" s="3">
+      <c r="C85" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D85" t="s" s="3">
+      <c r="D85" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E85" t="s" s="3">
+      <c r="E85" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F85" t="s" s="3">
+      <c r="F85" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G85" t="s" s="3">
+      <c r="G85" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H85" t="s" s="3">
+      <c r="H85" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2632,28 +2656,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="B87" t="s" s="3">
+      <c r="B87" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C87" t="s" s="3">
+      <c r="C87" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D87" t="s" s="3">
+      <c r="D87" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E87" t="s" s="3">
+      <c r="E87" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F87" t="s" s="3">
+      <c r="F87" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G87" t="s" s="3">
+      <c r="G87" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H87" t="s" s="3">
+      <c r="H87" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I87" t="s" s="3">
+      <c r="I87" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2944,10 +2968,10 @@
       <c r="I97">
         <f>((C97-C96)^2+(D97- D96)^2)^.5</f>
       </c>
-      <c r="J97" s="3" t="s">
+      <c r="J97" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K97" s="3" t="s">
+      <c r="K97" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L97" t="n">
@@ -2991,28 +3015,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="s" s="3">
+      <c r="A99" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B99" t="s" s="3">
+      <c r="B99" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C99" t="s" s="3">
+      <c r="C99" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D99" t="s" s="3">
+      <c r="D99" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E99" t="s" s="3">
+      <c r="E99" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F99" t="s" s="3">
+      <c r="F99" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G99" t="s" s="3">
+      <c r="G99" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H99" t="s" s="3">
+      <c r="H99" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3037,28 +3061,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="B101" t="s" s="3">
+      <c r="B101" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C101" t="s" s="3">
+      <c r="C101" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D101" t="s" s="3">
+      <c r="D101" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E101" t="s" s="3">
+      <c r="E101" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F101" t="s" s="3">
+      <c r="F101" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G101" t="s" s="3">
+      <c r="G101" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H101" t="s" s="3">
+      <c r="H101" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I101" t="s" s="3">
+      <c r="I101" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3349,10 +3373,10 @@
       <c r="I111">
         <f>((C111-C110)^2+(D111- D110)^2)^.5</f>
       </c>
-      <c r="J111" s="3" t="s">
+      <c r="J111" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K111" s="3" t="s">
+      <c r="K111" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L111" t="n">
@@ -3396,28 +3420,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s" s="3">
+      <c r="A113" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B113" t="s" s="3">
+      <c r="B113" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C113" t="s" s="3">
+      <c r="C113" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D113" t="s" s="3">
+      <c r="D113" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E113" t="s" s="3">
+      <c r="E113" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F113" t="s" s="3">
+      <c r="F113" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G113" t="s" s="3">
+      <c r="G113" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H113" t="s" s="3">
+      <c r="H113" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3442,28 +3466,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="s" s="3">
+      <c r="B115" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C115" t="s" s="3">
+      <c r="C115" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D115" t="s" s="3">
+      <c r="D115" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E115" t="s" s="3">
+      <c r="E115" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F115" t="s" s="3">
+      <c r="F115" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G115" t="s" s="3">
+      <c r="G115" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H115" t="s" s="3">
+      <c r="H115" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I115" t="s" s="3">
+      <c r="I115" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3696,10 +3720,10 @@
       <c r="I123">
         <f>((C123-C122)^2+(D123- D122)^2)^.5</f>
       </c>
-      <c r="J123" s="3" t="s">
+      <c r="J123" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K123" s="3" t="s">
+      <c r="K123" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L123" t="n">
@@ -3743,28 +3767,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="s" s="3">
+      <c r="A125" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B125" t="s" s="3">
+      <c r="B125" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C125" t="s" s="3">
+      <c r="C125" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D125" t="s" s="3">
+      <c r="D125" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E125" t="s" s="3">
+      <c r="E125" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F125" t="s" s="3">
+      <c r="F125" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G125" t="s" s="3">
+      <c r="G125" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H125" t="s" s="3">
+      <c r="H125" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3789,28 +3813,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="B127" t="s" s="3">
+      <c r="B127" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C127" t="s" s="3">
+      <c r="C127" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D127" t="s" s="3">
+      <c r="D127" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E127" t="s" s="3">
+      <c r="E127" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F127" t="s" s="3">
+      <c r="F127" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G127" t="s" s="3">
+      <c r="G127" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H127" t="s" s="3">
+      <c r="H127" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I127" t="s" s="3">
+      <c r="I127" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3985,10 +4009,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="3" t="s">
+      <c r="J133" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K133" s="3" t="s">
+      <c r="K133" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4032,28 +4056,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="3">
+      <c r="A135" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="3">
+      <c r="B135" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="3">
+      <c r="C135" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D135" t="s" s="3">
+      <c r="D135" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="3">
+      <c r="E135" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="3">
+      <c r="F135" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="3">
+      <c r="G135" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="3">
+      <c r="H135" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4078,28 +4102,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="3">
+      <c r="B137" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="3">
+      <c r="C137" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="3">
+      <c r="D137" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="3">
+      <c r="E137" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="3">
+      <c r="F137" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="3">
+      <c r="G137" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="3">
+      <c r="H137" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="3">
+      <c r="I137" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4274,10 +4298,10 @@
       <c r="I143">
         <f>((C143-C142)^2+(D143- D142)^2)^.5</f>
       </c>
-      <c r="J143" s="3" t="s">
+      <c r="J143" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K143" s="3" t="s">
+      <c r="K143" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L143" t="n">
@@ -4321,28 +4345,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="s" s="3">
+      <c r="A145" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B145" t="s" s="3">
+      <c r="B145" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C145" t="s" s="3">
+      <c r="C145" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D145" t="s" s="3">
+      <c r="D145" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E145" t="s" s="3">
+      <c r="E145" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F145" t="s" s="3">
+      <c r="F145" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G145" t="s" s="3">
+      <c r="G145" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H145" t="s" s="3">
+      <c r="H145" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4367,28 +4391,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="B147" t="s" s="3">
+      <c r="B147" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C147" t="s" s="3">
+      <c r="C147" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D147" t="s" s="3">
+      <c r="D147" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E147" t="s" s="3">
+      <c r="E147" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F147" t="s" s="3">
+      <c r="F147" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G147" t="s" s="3">
+      <c r="G147" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H147" t="s" s="3">
+      <c r="H147" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I147" t="s" s="3">
+      <c r="I147" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4447,10 +4471,10 @@
       <c r="I149">
         <f>((C149-C148)^2+(D149- D148)^2)^.5</f>
       </c>
-      <c r="J149" s="3" t="s">
+      <c r="J149" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K149" s="3" t="s">
+      <c r="K149" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L149" t="n">
@@ -4494,28 +4518,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="s" s="3">
+      <c r="A151" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B151" t="s" s="3">
+      <c r="B151" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C151" t="s" s="3">
+      <c r="C151" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D151" t="s" s="3">
+      <c r="D151" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E151" t="s" s="3">
+      <c r="E151" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F151" t="s" s="3">
+      <c r="F151" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G151" t="s" s="3">
+      <c r="G151" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H151" t="s" s="3">
+      <c r="H151" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4540,28 +4564,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="B153" t="s" s="3">
+      <c r="B153" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C153" t="s" s="3">
+      <c r="C153" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D153" t="s" s="3">
+      <c r="D153" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E153" t="s" s="3">
+      <c r="E153" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F153" t="s" s="3">
+      <c r="F153" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G153" t="s" s="3">
+      <c r="G153" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H153" t="s" s="3">
+      <c r="H153" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I153" t="s" s="3">
+      <c r="I153" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4649,10 +4673,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="3" t="s">
+      <c r="J156" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K156" s="3" t="s">
+      <c r="K156" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
